--- a/instruction set.xlsx
+++ b/instruction set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OKC\projects\codes\PythonProjects\compiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OKC\projects\codes\PythonProjects\Assembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9A8F3B-36C5-4044-94F5-EAABC7AA3A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB445CE8-F311-4F35-9302-940D53DB5E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>load_imm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +268,10 @@
   </si>
   <si>
     <t>Registers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldim</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +366,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,8 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -660,7 +659,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -673,16 +672,16 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -691,10 +690,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -702,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -713,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -724,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -735,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -746,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -760,7 +759,7 @@
         <v>110000</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -771,7 +770,7 @@
         <v>111000</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -779,10 +778,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,169 +789,169 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>10000000</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>10001000</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
